--- a/ESPN sports website/IPL/Sunrisers Hyderabad/Umran Malik.xlsx
+++ b/ESPN sports website/IPL/Sunrisers Hyderabad/Umran Malik.xlsx
@@ -445,7 +445,7 @@
         <v>Umran Malik</v>
       </c>
       <c r="C2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
@@ -457,19 +457,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>0.00</v>
+        <v>100.00</v>
       </c>
       <c r="H2" t="str">
-        <v>Punjab Kings</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I2" t="str">
-        <v>Wankhede</v>
+        <v>DY Patil</v>
       </c>
       <c r="J2" t="str">
-        <v>May 22, 2022</v>
+        <v>April 04, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Punjab Kings won by 5 wickets (with 29 balls remaining)</v>
+        <v>Super Giants won by 12 runs</v>
       </c>
     </row>
     <row r="3">
@@ -495,16 +495,16 @@
         <v>0.00</v>
       </c>
       <c r="H3" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Punjab Kings</v>
       </c>
       <c r="I3" t="str">
         <v>Wankhede</v>
       </c>
       <c r="J3" t="str">
-        <v>May 08, 2022</v>
+        <v>May 22, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>RCB won by 67 runs</v>
+        <v>Punjab Kings won by 5 wickets (with 29 balls remaining)</v>
       </c>
     </row>
     <row r="4">
@@ -515,7 +515,7 @@
         <v>Umran Malik</v>
       </c>
       <c r="C4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="str">
         <v>1</v>
@@ -527,19 +527,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>100.00</v>
+        <v>0.00</v>
       </c>
       <c r="H4" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I4" t="str">
-        <v>DY Patil</v>
+        <v>Wankhede</v>
       </c>
       <c r="J4" t="str">
-        <v>April 04, 2022</v>
+        <v>May 08, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Super Giants won by 12 runs</v>
+        <v>RCB won by 67 runs</v>
       </c>
     </row>
     <row r="5">
